--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\CS 158A\Project 2\First Draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\158aProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="udp" sheetId="1" r:id="rId1"/>
+    <sheet name="udp_2client" sheetId="2" r:id="rId2"/>
+    <sheet name="tcp" sheetId="8" r:id="rId3"/>
+    <sheet name="tcp_2client" sheetId="4" r:id="rId4"/>
+    <sheet name="both" sheetId="5" r:id="rId5"/>
+    <sheet name="both_2client" sheetId="6" r:id="rId6"/>
+    <sheet name="tcp_sockopt" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
   <si>
     <t>MSG Size</t>
   </si>
@@ -40,6 +45,24 @@
   </si>
   <si>
     <t>RTT(us)</t>
+  </si>
+  <si>
+    <t>UDP:</t>
+  </si>
+  <si>
+    <t>NO OPT</t>
+  </si>
+  <si>
+    <t>NODELAY</t>
+  </si>
+  <si>
+    <t>MAXSEG</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>UDP</t>
   </si>
 </sst>
 </file>
@@ -162,6 +185,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -202,7 +226,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>udp!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -237,7 +261,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>udp!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -264,7 +288,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>udp!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -299,11 +323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348686304"/>
-        <c:axId val="348686696"/>
+        <c:axId val="326941424"/>
+        <c:axId val="326285736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348686304"/>
+        <c:axId val="326941424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,6 +373,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -415,12 +440,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348686696"/>
+        <c:crossAx val="326285736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348686696"/>
+        <c:axId val="326285736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,6 +491,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -532,7 +558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348686304"/>
+        <c:crossAx val="326941424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -544,6 +570,1570 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs. MSG Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_2client!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tcp_2client!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_2client!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80.025608194622279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.31568782907442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.91309005837724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>258.93319523562917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172.04208579523765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.63494934344995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_2client!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tcp_2client!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_2client!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>70.323488045007039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.204723651931303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163.10220391853045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206.12978446554411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.30719680254822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.40846855782897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="435469408"/>
+        <c:axId val="435468624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="435469408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size(KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435468624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435468624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput (bit/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435469408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RTT vs MSG Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>both!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>both!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>549002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>both!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="439308264"/>
+        <c:axId val="439307872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="439308264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size(KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439307872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439307872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT(us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439308264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> MSG Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>both!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>both!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>46.176579239009975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.239484799331905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264.68155500413565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.4097556575372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.54385300246258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116.57516730357996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>both!$C$11:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1342.2818791946308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1258.6532410320958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="437108928"/>
+        <c:axId val="437108536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="437108928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size(KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437108536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437108536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput (bits/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437108928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -621,6 +2211,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -661,7 +2252,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>udp!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -696,7 +2287,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>udp!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -723,7 +2314,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>udp!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -758,11 +2349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348687480"/>
-        <c:axId val="348687872"/>
+        <c:axId val="328694656"/>
+        <c:axId val="328695048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348687480"/>
+        <c:axId val="328694656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,6 +2399,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -874,12 +2466,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348687872"/>
+        <c:crossAx val="328695048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348687872"/>
+        <c:axId val="328695048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,6 +2517,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -991,7 +2584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348687480"/>
+        <c:crossAx val="328694656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1080,6 +2673,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1120,7 +2714,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>udp!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1155,7 +2749,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>udp!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1182,7 +2776,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:f>udp!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1217,11 +2811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348688656"/>
-        <c:axId val="349821952"/>
+        <c:axId val="328695832"/>
+        <c:axId val="328696224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348688656"/>
+        <c:axId val="328695832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,6 +2861,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1333,12 +2928,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349821952"/>
+        <c:crossAx val="328696224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349821952"/>
+        <c:axId val="328696224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,6 +2979,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1450,7 +3046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348688656"/>
+        <c:crossAx val="328695832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1580,7 +3176,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>udp_2client!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1615,7 +3211,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:f>udp_2client!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1642,7 +3238,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$7</c:f>
+              <c:f>udp_2client!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1674,7 +3270,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$1</c:f>
+              <c:f>udp_2client!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1709,7 +3305,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:f>udp_2client!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1736,7 +3332,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$7</c:f>
+              <c:f>udp_2client!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1771,11 +3367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349824304"/>
-        <c:axId val="349824696"/>
+        <c:axId val="328697400"/>
+        <c:axId val="328697792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349824304"/>
+        <c:axId val="328697400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,12 +3484,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349824696"/>
+        <c:crossAx val="328697792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349824696"/>
+        <c:axId val="328697792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,7 +3602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349824304"/>
+        <c:crossAx val="328697400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2136,7 +3732,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>udp_2client!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2171,7 +3767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:f>udp_2client!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2198,7 +3794,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$7</c:f>
+              <c:f>udp_2client!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2230,7 +3826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$1</c:f>
+              <c:f>udp_2client!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2265,7 +3861,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:f>udp_2client!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2292,7 +3888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$H$2:$H$7</c:f>
+              <c:f>udp_2client!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2327,11 +3923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349823912"/>
-        <c:axId val="349823520"/>
+        <c:axId val="328853096"/>
+        <c:axId val="328853488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349823912"/>
+        <c:axId val="328853096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,12 +4040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349823520"/>
+        <c:crossAx val="328853488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349823520"/>
+        <c:axId val="328853488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,7 +4158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349823912"/>
+        <c:crossAx val="328853096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2692,7 +4288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>udp_2client!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2727,7 +4323,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:f>udp_2client!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2754,7 +4350,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$7</c:f>
+              <c:f>udp_2client!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2786,7 +4382,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$1</c:f>
+              <c:f>udp_2client!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2821,7 +4417,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:f>udp_2client!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2848,7 +4444,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$2:$I$7</c:f>
+              <c:f>udp_2client!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2883,11 +4479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349822736"/>
-        <c:axId val="349825480"/>
+        <c:axId val="328855840"/>
+        <c:axId val="328855448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349822736"/>
+        <c:axId val="328855840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,12 +4596,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349825480"/>
+        <c:crossAx val="328855448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349825480"/>
+        <c:axId val="328855448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3118,7 +4714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349822736"/>
+        <c:crossAx val="328855840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3167,7 +4763,1509 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RTT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. MSG Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT(us)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tcp!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>613171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="429228800"/>
+        <c:axId val="429229192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="429228800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size (KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429229192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429229192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT(us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429228800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs. MSG Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tcp!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>93.75585974123382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.2965964343598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.17734036989492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174.07955435634085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.80696264894041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.37545154614291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="432524128"/>
+        <c:axId val="372071248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432524128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372071248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="372071248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput (bit/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432524128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RTT(us) vs. MSG Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_2client!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTT(us)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tcp_2client!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_2client!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>544056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_2client!$F$1:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>RTT(us)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>631111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tcp_2client!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_2client!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>631111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="432574064"/>
+        <c:axId val="432573672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432574064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size(KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432573672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432573672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT(us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432574064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3407,6 +6505,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3923,8 +7141,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3951,8 +7169,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4032,6 +7250,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4042,6 +7265,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4053,7 +7281,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4073,6 +7301,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4085,10 +7316,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4128,23 +7359,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4249,8 +7479,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4382,20 +7612,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4409,17 +7638,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4439,8 +7657,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4467,8 +7685,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4548,6 +7766,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4558,6 +7781,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4569,7 +7797,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4589,6 +7817,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4601,10 +7832,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4644,23 +7875,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4765,8 +7995,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4898,20 +8128,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4925,17 +8154,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4955,8 +8173,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4983,8 +8201,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5064,6 +8282,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5074,6 +8297,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5085,7 +8313,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5105,6 +8333,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5117,10 +8348,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5160,23 +8391,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5281,8 +8511,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5414,20 +8644,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5441,17 +8670,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5471,7 +8689,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5987,7 +9205,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6484,6 +9702,3102 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6508,15 +12822,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6538,15 +12852,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6699,6 +13013,201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7090,8 +13599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7300,4 +13809,1125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10666</v>
+      </c>
+      <c r="C2">
+        <f>A2/B2*1000000</f>
+        <v>93.75585974123382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>39488</v>
+      </c>
+      <c r="C3">
+        <f>A3/B3*1000000</f>
+        <v>101.2965964343598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>42066</v>
+      </c>
+      <c r="C4">
+        <f>A4/B4*1000000</f>
+        <v>190.17734036989492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>91912</v>
+      </c>
+      <c r="C5">
+        <f>A5/B5*1000000</f>
+        <v>174.07955435634085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>208053</v>
+      </c>
+      <c r="C6">
+        <f>A6/B6*1000000</f>
+        <v>153.80696264894041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>613171</v>
+      </c>
+      <c r="C7">
+        <f>A7/B7*1000000</f>
+        <v>104.37545154614291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="C1:C7 G1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12496</v>
+      </c>
+      <c r="C2">
+        <f>A2/B2 * 1000000</f>
+        <v>80.025608194622279</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>14220</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G7" si="0">E2/F2 * 1000000</f>
+        <v>70.323488045007039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>49191</v>
+      </c>
+      <c r="C3">
+        <f>A3/B3 * 1000000</f>
+        <v>81.31568782907442</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>41578</v>
+      </c>
+      <c r="G3">
+        <f>E3/F3 * 1000000</f>
+        <v>96.204723651931303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>45737</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="1">A4/B4 * 1000000</f>
+        <v>174.91309005837724</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>49049</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>163.10220391853045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>61792</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>258.93319523562917</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>77621</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>206.12978446554411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>186001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>172.04208579523765</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>197157</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>162.30719680254822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>544056</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>117.63494934344995</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>631111</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>101.40846855782897</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>21656</v>
+      </c>
+      <c r="C2">
+        <f>A2/B2 *1000000</f>
+        <v>46.176579239009975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>62267</v>
+      </c>
+      <c r="C3">
+        <f>A3/B3 *1000000</f>
+        <v>64.239484799331905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>30225</v>
+      </c>
+      <c r="C4">
+        <f>A4/B4 *1000000</f>
+        <v>264.68155500413565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>88687</v>
+      </c>
+      <c r="C5">
+        <f>A5/B5 *1000000</f>
+        <v>180.4097556575372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>211160</v>
+      </c>
+      <c r="C6">
+        <f>A6/B6 *1000000</f>
+        <v>151.54385300246258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>549002</v>
+      </c>
+      <c r="C7">
+        <f>A7/B7 *1000000</f>
+        <v>116.57516730357996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>745</v>
+      </c>
+      <c r="C11">
+        <f>A11/B11 *1000000</f>
+        <v>1342.2818791946308</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3178</v>
+      </c>
+      <c r="C12">
+        <f>A12/B12 *1000000</f>
+        <v>1258.6532410320958</v>
+      </c>
+      <c r="D12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="e">
+        <f>A13/B13 *1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="e">
+        <f>A14/B14 *1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="e">
+        <f>A15/B15 *1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="e">
+        <f>A16/B16 *1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>22105</v>
+      </c>
+      <c r="C2">
+        <f>A2/B2 * 1000000</f>
+        <v>45.238633793259439</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>21870</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G7" si="0">E2/F2 * 1000000</f>
+        <v>45.724737082761777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>44887</v>
+      </c>
+      <c r="C3">
+        <f>A3/B3 * 1000000</f>
+        <v>89.112660681266291</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>46314</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>86.366973269421763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>72630</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="1">A4/B4 * 1000000</f>
+        <v>110.14732204323282</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>82648</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>96.796050721130584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>104730</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>152.77379929342118</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>106153</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>150.72583911900747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>226521</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>141.26725557453835</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>228024</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>140.33610497140651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>711141</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>89.996217346489658</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>681083</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>93.96798921717324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="e">
+        <f>A11/B11 * 1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1375</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H16" si="2">F11/G11 * 1000000</f>
+        <v>727.27272727272725</v>
+      </c>
+      <c r="I11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1583</v>
+      </c>
+      <c r="C12">
+        <f>A12/B12 * 1000000</f>
+        <v>2526.8477574226149</v>
+      </c>
+      <c r="D12">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>1439</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>2779.7081306462819</v>
+      </c>
+      <c r="I12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>13887</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C16" si="3">A13/B13 * 1000000</f>
+        <v>576.07834665514508</v>
+      </c>
+      <c r="D13">
+        <v>88</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>19749</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>405.08380171147911</v>
+      </c>
+      <c r="I13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10666</v>
+      </c>
+      <c r="C3">
+        <f>A3/B3 * 1000000</f>
+        <v>93.75585974123382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>39488</v>
+      </c>
+      <c r="C4">
+        <f>A4/B4 * 1000000</f>
+        <v>101.2965964343598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>42066</v>
+      </c>
+      <c r="C5">
+        <f>A5/B5 * 1000000</f>
+        <v>190.17734036989492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>91912</v>
+      </c>
+      <c r="C6">
+        <f>A6/B6 * 1000000</f>
+        <v>174.07955435634085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>208053</v>
+      </c>
+      <c r="C7">
+        <f>A7/B7 * 1000000</f>
+        <v>153.80696264894041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>613171</v>
+      </c>
+      <c r="C8">
+        <f>A8/B8 * 1000000</f>
+        <v>104.37545154614291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>12594</v>
+      </c>
+      <c r="C12">
+        <f>A12/B12 * 1000000</f>
+        <v>79.402890265205656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>52467</v>
+      </c>
+      <c r="C13">
+        <f>A13/B13 * 1000000</f>
+        <v>76.238397468885211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>28727</v>
+      </c>
+      <c r="C14">
+        <f>A14/B14 * 1000000</f>
+        <v>278.48365649040971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>72290</v>
+      </c>
+      <c r="C15">
+        <f>A15/B15 * 1000000</f>
+        <v>221.3307511412367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>173272</v>
+      </c>
+      <c r="C16">
+        <f>A16/B16 * 1000000</f>
+        <v>184.68073318251075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>560021</v>
+      </c>
+      <c r="C17">
+        <f>A17/B17 * 1000000</f>
+        <v>114.28142873213683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>317434</v>
+      </c>
+      <c r="C21">
+        <f>A21/B21 * 1000000</f>
+        <v>3.1502611566498864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>46226</v>
+      </c>
+      <c r="C22">
+        <f>A22/B22 * 1000000</f>
+        <v>86.531389261454592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>272547</v>
+      </c>
+      <c r="C23">
+        <f>A23/B23 * 1000000</f>
+        <v>29.35273549149321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>286511</v>
+      </c>
+      <c r="C24">
+        <f>A24/B24 * 1000000</f>
+        <v>55.844278230155211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>282688</v>
+      </c>
+      <c r="C25">
+        <f>A25/B25 * 1000000</f>
+        <v>113.19900384876613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>604262</v>
+      </c>
+      <c r="C26">
+        <f>A26/B26 * 1000000</f>
+        <v>105.91432193320115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="udp" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>MSG Size</t>
   </si>
@@ -63,6 +63,27 @@
   </si>
   <si>
     <t>UDP</t>
+  </si>
+  <si>
+    <t>TCP1</t>
+  </si>
+  <si>
+    <t>TCP2</t>
+  </si>
+  <si>
+    <t>UDP1</t>
+  </si>
+  <si>
+    <t>UDP2</t>
+  </si>
+  <si>
+    <t>No Options</t>
+  </si>
+  <si>
+    <t>TCP_NODELAY</t>
+  </si>
+  <si>
+    <t>TCP_MAXSEG</t>
   </si>
 </sst>
 </file>
@@ -2091,6 +2112,2951 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="437108928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RTT vs MSG Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>both_2client!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>711141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21870</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>228024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>681083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UDP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UDP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$G$11:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="373015680"/>
+        <c:axId val="373016072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="373015680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size(KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373016072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373016072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT(us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373015680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> MSG Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>both_2client!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45.238633793259439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.112660681266291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.14732204323282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152.77379929342118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141.26725557453835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.996217346489658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45.724737082761777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.366973269421763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.796050721130584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.72583911900747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140.33610497140651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.96798921717324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UDP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$C$11:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2526.8477574226149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>576.07834665514508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UDP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$H$11:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>727.27272727272725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2779.7081306462819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405.08380171147911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="373017248"/>
+        <c:axId val="373016464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="373017248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size(KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373016464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373016464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput(bits/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373017248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lost Packets vs MSG Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UDP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>both_2client!$F$11:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$D$11:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>both_2client!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UDP2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>both_2client!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="434613096"/>
+        <c:axId val="434612704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="434613096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size(KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434612704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434612704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lost Packets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434613096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RTT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs MSG Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_sockopt!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Options</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tcp_sockopt!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_sockopt!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>613171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_sockopt!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP_NODELAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_sockopt!$B$12:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>560021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_sockopt!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP_MAXSEG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_sockopt!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>317434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>286511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>282688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>604262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="440660208"/>
+        <c:axId val="440659816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440660208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size(KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440659816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440659816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT(us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440660208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs MSG Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_sockopt!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Options</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tcp_sockopt!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_sockopt!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>93.75585974123382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.2965964343598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.17734036989492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174.07955435634085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.80696264894041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.37545154614291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_sockopt!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP_NODELAY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_sockopt!$C$12:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>79.402890265205656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.238397468885211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>278.48365649040971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.3307511412367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184.68073318251075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114.28142873213683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tcp_sockopt!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCP_MAXSEG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tcp_sockopt!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1502611566498864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.531389261454592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.35273549149321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.844278230155211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.19900384876613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.91432193320115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="442853376"/>
+        <c:axId val="444428312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="442853376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSG Size(KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444428312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444428312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput(bits/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442853376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6305,6 +9271,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8689,6 +11855,2586 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12852,15 +18598,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13208,6 +18954,166 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14288,8 +20194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14299,19 +20205,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -14456,25 +20362,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -14647,6 +20553,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14654,13 +20561,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14673,10 +20580,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14761,10 +20668,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -14849,10 +20756,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -14929,5 +20836,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>